--- a/public/your_file.xlsx
+++ b/public/your_file.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve">Customer Name</t>
   </si>
@@ -47,27 +47,6 @@
   </si>
   <si>
     <t xml:space="preserve">Served from office</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acetone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IPA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phenol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acetic Acid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Xyz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methanol</t>
   </si>
 </sst>
 </file>
@@ -82,6 +61,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -103,6 +83,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -173,15 +154,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D29" activeCellId="0" sqref="D29:E39"/>
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="31.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="47.14"/>
   </cols>
@@ -216,55 +197,23 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="G2" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="G3" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>12</v>
-      </c>
       <c r="G4" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>13</v>
-      </c>
       <c r="G5" s="0" t="n">
         <v>10</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
